--- a/youtube_music.xlsx
+++ b/youtube_music.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-60" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="-90" yWindow="-60" windowWidth="19200" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ost" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pop!$A$2:$F$2</definedName>
     <definedName name="ost" localSheetId="0">ost!$A$2:$E$77</definedName>
     <definedName name="pop" localSheetId="1">pop!#REF!</definedName>
-    <definedName name="pop_1" localSheetId="1">pop!$A$2:$D$71</definedName>
+    <definedName name="pop_1" localSheetId="1">pop!$A$2:$D$72</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -52,7 +52,7 @@
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0" shapeId="0">
+    <comment ref="C26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1647,7 +1647,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="425">
   <si>
     <t>Queen Millennia 1000 OST</t>
   </si>
@@ -3128,6 +3128,18 @@
   </si>
   <si>
     <t>심현정(Shim Hyun-Jung)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lara Fabian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adagio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgien</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3135,7 +3147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3203,6 +3215,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3230,7 +3250,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3329,6 +3349,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3645,7 +3671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -5361,10 +5387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5410,20 +5436,20 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="13" customFormat="1">
-      <c r="A3" s="1">
-        <v>79</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>371</v>
+      <c r="A3" s="33">
+        <v>80</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="D3" s="5">
-        <v>1985</v>
+        <v>1999</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>277</v>
@@ -5431,19 +5457,19 @@
     </row>
     <row r="4" spans="1:6" s="13" customFormat="1">
       <c r="A4" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>255</v>
+        <v>370</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D4" s="5">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>277</v>
@@ -5451,76 +5477,76 @@
     </row>
     <row r="5" spans="1:6" s="13" customFormat="1">
       <c r="A5" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>365</v>
+        <v>255</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D5" s="5">
-        <v>1976</v>
+        <v>1984</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>367</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="13" customFormat="1">
       <c r="A6" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D6" s="5">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="13" customFormat="1">
       <c r="A7" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="D7" s="5">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>277</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="13" customFormat="1">
       <c r="A8" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>348</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D8" s="5">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>244</v>
@@ -5531,16 +5557,16 @@
     </row>
     <row r="9" spans="1:6" s="13" customFormat="1">
       <c r="A9" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D9" s="5">
-        <v>1964</v>
+        <v>1970</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>244</v>
@@ -5551,16 +5577,16 @@
     </row>
     <row r="10" spans="1:6" s="13" customFormat="1">
       <c r="A10" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="D10" s="5">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>244</v>
@@ -5571,36 +5597,36 @@
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1">
       <c r="A11" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="D11" s="5">
-        <v>1971</v>
+        <v>1962</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>342</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="13" customFormat="1">
       <c r="A12" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>341</v>
+      <c r="C12" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="D12" s="5">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>254</v>
@@ -5611,99 +5637,99 @@
     </row>
     <row r="13" spans="1:6" s="13" customFormat="1">
       <c r="A13" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D13" s="5">
-        <v>1997</v>
+        <v>1969</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>277</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="13" customFormat="1">
       <c r="A14" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D14" s="5">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>337</v>
+        <v>254</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1">
       <c r="A15" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D15" s="5">
-        <v>1978</v>
+        <v>1994</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="13" customFormat="1">
       <c r="A16" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D16" s="5">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="13" customFormat="1">
       <c r="A17" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D17" s="5">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>277</v>
@@ -5711,16 +5737,16 @@
     </row>
     <row r="18" spans="1:6" s="13" customFormat="1">
       <c r="A18" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>322</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D18" s="5">
-        <v>1976</v>
+        <v>1981</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>262</v>
@@ -5731,16 +5757,16 @@
     </row>
     <row r="19" spans="1:6" s="13" customFormat="1">
       <c r="A19" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>322</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D19" s="5">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>262</v>
@@ -5751,13 +5777,13 @@
     </row>
     <row r="20" spans="1:6" s="13" customFormat="1">
       <c r="A20" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>322</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D20" s="5">
         <v>1975</v>
@@ -5771,19 +5797,19 @@
     </row>
     <row r="21" spans="1:6" s="13" customFormat="1">
       <c r="A21" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>322</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D21" s="5">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>277</v>
@@ -5791,16 +5817,16 @@
     </row>
     <row r="22" spans="1:6" s="13" customFormat="1">
       <c r="A22" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>322</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D22" s="5">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>320</v>
@@ -5809,101 +5835,101 @@
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" s="13" customFormat="1">
       <c r="A23" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D23" s="5">
-        <v>1992</v>
+        <v>1977</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D24" s="5">
-        <v>2019</v>
+        <v>1992</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D25" s="5">
         <v>2019</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="D26" s="5">
-        <v>1972</v>
+        <v>2019</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>222</v>
+        <v>292</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="D27" s="5">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>277</v>
@@ -5911,16 +5937,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>221</v>
+        <v>289</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="D28" s="5">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>274</v>
@@ -5931,19 +5957,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D29" s="5">
-        <v>1966</v>
+        <v>1974</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>277</v>
@@ -5951,13 +5977,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>217</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D30" s="5">
         <v>1966</v>
@@ -5971,19 +5997,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s">
-        <v>215</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>216</v>
+        <v>52</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="D31" s="5">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>277</v>
@@ -5991,16 +6017,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D32" s="5">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>254</v>
@@ -6011,16 +6037,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
         <v>208</v>
       </c>
-      <c r="C33" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1963</v>
+      <c r="C33" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1969</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>254</v>
@@ -6031,16 +6057,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="C34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D34" s="1">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>254</v>
@@ -6051,19 +6077,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D35" s="1">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>277</v>
@@ -6071,19 +6097,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D36" s="1">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>277</v>
@@ -6091,19 +6117,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D37" s="1">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>277</v>
@@ -6111,33 +6137,33 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D38" s="1">
-        <v>1997</v>
+        <v>1963</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>200</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D39" s="1">
         <v>1997</v>
@@ -6151,13 +6177,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>200</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D40" s="1">
         <v>1997</v>
@@ -6171,13 +6197,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D41" s="1">
         <v>1997</v>
@@ -6191,59 +6217,59 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D42" s="1">
-        <v>2021</v>
+        <v>1997</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>267</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D43" s="1">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="C44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D44" s="1">
-        <v>1966</v>
+        <v>2012</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>277</v>
@@ -6251,16 +6277,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D45" s="1">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>254</v>
@@ -6271,16 +6297,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D46" s="1">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>254</v>
@@ -6291,19 +6317,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D47" s="1">
         <v>1966</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>277</v>
@@ -6311,16 +6337,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D48" s="1">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>244</v>
@@ -6331,16 +6357,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="C49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D49" s="1">
-        <v>1967</v>
+        <v>1972</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>244</v>
@@ -6351,16 +6377,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D50" s="1">
-        <v>1975</v>
+        <v>1967</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>244</v>
@@ -6371,16 +6397,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
         <v>186</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D51" s="1">
-        <v>1965</v>
+        <v>1975</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>244</v>
@@ -6391,16 +6417,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D52" s="1">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>244</v>
@@ -6411,19 +6437,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D53" s="1">
-        <v>2004</v>
+        <v>1960</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>277</v>
@@ -6431,16 +6457,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
         <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D54" s="1">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>249</v>
@@ -6451,19 +6477,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D55" s="1">
-        <v>1975</v>
+        <v>2001</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>277</v>
@@ -6471,13 +6497,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D56" s="1">
         <v>1975</v>
@@ -6491,19 +6517,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D57" s="1">
-        <v>1994</v>
+        <v>1975</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>277</v>
@@ -6511,56 +6537,56 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="1">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="1">
-        <v>1973</v>
+        <v>1990</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="1">
-        <v>1968</v>
+        <v>1973</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>247</v>
@@ -6571,36 +6597,36 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>283</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="1">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D62" s="1">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>254</v>
@@ -6611,19 +6637,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D63" s="1">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>277</v>
@@ -6631,16 +6657,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D64" s="1">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>244</v>
@@ -6651,16 +6677,16 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C65" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D65" s="1">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>244</v>
@@ -6671,19 +6697,19 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D66" s="1">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>277</v>
@@ -6691,19 +6717,19 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D67" s="1">
-        <v>1982</v>
+        <v>1968</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>277</v>
@@ -6711,13 +6737,13 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D68" s="1">
         <v>1982</v>
@@ -6731,56 +6757,56 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D69" s="1">
-        <v>1991</v>
+        <v>1982</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>285</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D70" s="1">
-        <v>1976</v>
+        <v>1991</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
         <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D71" s="1">
-        <v>1969</v>
+        <v>1976</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>254</v>
@@ -6791,16 +6817,16 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D72" s="1">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>254</v>
@@ -6811,19 +6837,19 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D73" s="1">
-        <v>1978</v>
+        <v>1968</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>277</v>
@@ -6831,16 +6857,16 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>281</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D74" s="1">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>252</v>
@@ -6851,59 +6877,59 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D75" s="1">
         <v>1977</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D76" s="1">
-        <v>1998</v>
+        <v>1977</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D77" s="1">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>277</v>
@@ -6911,46 +6937,36 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D78" s="1">
-        <v>1965</v>
+        <v>1991</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G78" s="8"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
+        <v>277</v>
+      </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D79" s="1">
-        <v>1976</v>
+        <v>1965</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>247</v>
@@ -6958,44 +6974,74 @@
       <c r="F79" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="G79" s="8"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D80" s="1">
-        <v>1988</v>
+        <v>1976</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1988</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
         <v>1</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>290</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>147</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D82" s="1">
         <v>1971</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>291</v>
       </c>
     </row>
